--- a/bin/Resoures/NavigationSteps.xlsx
+++ b/bin/Resoures/NavigationSteps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\java workspace\Web_Auto\src\Resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467667DA-28BA-4681-88A8-B5D0B5CE27E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC3F056-F959-4E00-9F8A-6713C9B1E885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>CaseId</t>
   </si>
@@ -60,7 +60,16 @@
     <t>OPEN_BROWSER</t>
   </si>
   <si>
-    <t>GET_TEXT</t>
+    <t>REPEAT_SEQUENCE_STEPS</t>
+  </si>
+  <si>
+    <t>GO_BACK</t>
+  </si>
+  <si>
+    <t>EXTRACT_HEADER_TO_EXCEL</t>
+  </si>
+  <si>
+    <t>EXTRACT_CONTENT_TO_EXCEL</t>
   </si>
 </sst>
 </file>
@@ -384,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,10 +454,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -458,11 +467,11 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -473,10 +482,111 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
